--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N2">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O2">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P2">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q2">
-        <v>1.344586657723333</v>
+        <v>0.6175738926466666</v>
       </c>
       <c r="R2">
-        <v>12.10127991951</v>
+        <v>5.55816503382</v>
       </c>
       <c r="S2">
-        <v>0.003703709696279458</v>
+        <v>0.002017680366056467</v>
       </c>
       <c r="T2">
-        <v>0.004565516426224701</v>
+        <v>0.002470195229162786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>25.946193</v>
       </c>
       <c r="O3">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P3">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q3">
-        <v>6.059387425910001</v>
+        <v>4.088583795478001</v>
       </c>
       <c r="R3">
-        <v>54.53448683319</v>
+        <v>36.79725415930201</v>
       </c>
       <c r="S3">
-        <v>0.01669078882640116</v>
+        <v>0.01335784324327383</v>
       </c>
       <c r="T3">
-        <v>0.02057452575997805</v>
+        <v>0.01635367088193984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N4">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O4">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P4">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q4">
-        <v>0.7490529778400001</v>
+        <v>0.301425785346</v>
       </c>
       <c r="R4">
-        <v>6.741476800560001</v>
+        <v>2.712832068114</v>
       </c>
       <c r="S4">
-        <v>0.002063291912884543</v>
+        <v>0.0009847904779610474</v>
       </c>
       <c r="T4">
-        <v>0.002543394027300187</v>
+        <v>0.001205654166689869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N5">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O5">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P5">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q5">
-        <v>5.134484140510001</v>
+        <v>4.59885435625</v>
       </c>
       <c r="R5">
-        <v>30.80690484306001</v>
+        <v>27.5931261375</v>
       </c>
       <c r="S5">
-        <v>0.0141431112582949</v>
+        <v>0.01502495207689697</v>
       </c>
       <c r="T5">
-        <v>0.01162269041272015</v>
+        <v>0.01226311347860328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H6">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I6">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J6">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N6">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O6">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P6">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q6">
-        <v>1.35952109402</v>
+        <v>0.4197056208426667</v>
       </c>
       <c r="R6">
-        <v>12.23568984618</v>
+        <v>3.777350587584</v>
       </c>
       <c r="S6">
-        <v>0.003744847109180825</v>
+        <v>0.001371223428938386</v>
       </c>
       <c r="T6">
-        <v>0.004616225998446909</v>
+        <v>0.001678754290948501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N7">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O7">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P7">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q7">
-        <v>22.77207772327555</v>
+        <v>15.50096039435556</v>
       </c>
       <c r="R7">
-        <v>204.94869950948</v>
+        <v>139.5086435492</v>
       </c>
       <c r="S7">
-        <v>0.0627264628751652</v>
+        <v>0.05064330570820307</v>
       </c>
       <c r="T7">
-        <v>0.07732212297935251</v>
+        <v>0.06200132303113002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J8">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>25.946193</v>
       </c>
       <c r="O8">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P8">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q8">
         <v>102.6224978700133</v>
@@ -948,10 +948,10 @@
         <v>923.60248083012</v>
       </c>
       <c r="S8">
-        <v>0.2826771619622852</v>
+        <v>0.3352787440230455</v>
       </c>
       <c r="T8">
-        <v>0.3484525872947942</v>
+        <v>0.4104733177059819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N9">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O9">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P9">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q9">
-        <v>12.68604930165334</v>
+        <v>7.56571677676</v>
       </c>
       <c r="R9">
-        <v>114.17444371488</v>
+        <v>68.09145099084</v>
       </c>
       <c r="S9">
-        <v>0.03494415442554584</v>
+        <v>0.02471801087671038</v>
       </c>
       <c r="T9">
-        <v>0.04307522028268718</v>
+        <v>0.03026163785366142</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J10">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N10">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O10">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P10">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q10">
-        <v>86.95822708414669</v>
+        <v>115.4301697083333</v>
       </c>
       <c r="R10">
-        <v>521.7493625048801</v>
+        <v>692.5810182500001</v>
       </c>
       <c r="S10">
-        <v>0.2395293951288745</v>
+        <v>0.3771227861866891</v>
       </c>
       <c r="T10">
-        <v>0.1968432513529321</v>
+        <v>0.3078012827398998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>35.59684</v>
       </c>
       <c r="I11">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J11">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N11">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O11">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P11">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q11">
-        <v>23.02500909229333</v>
+        <v>10.53451300878222</v>
       </c>
       <c r="R11">
-        <v>207.22508183064</v>
+        <v>94.81061707904</v>
       </c>
       <c r="S11">
-        <v>0.06342317093674196</v>
+        <v>0.03441738764683686</v>
       </c>
       <c r="T11">
-        <v>0.07818094625662154</v>
+        <v>0.04213634042126733</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N12">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O12">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P12">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q12">
-        <v>0.877413115593111</v>
+        <v>0.4950122465333333</v>
       </c>
       <c r="R12">
-        <v>7.896718040338</v>
+        <v>4.4551102188</v>
       </c>
       <c r="S12">
-        <v>0.002416864279590108</v>
+        <v>0.001617258279017376</v>
       </c>
       <c r="T12">
-        <v>0.002979238243080645</v>
+        <v>0.001979968558132333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>25.946193</v>
       </c>
       <c r="O13">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P13">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q13">
-        <v>3.954067199324666</v>
+        <v>3.27717715052</v>
       </c>
       <c r="R13">
-        <v>35.586604793922</v>
+        <v>29.49459435468</v>
       </c>
       <c r="S13">
-        <v>0.01089161263185216</v>
+        <v>0.01070689041655487</v>
       </c>
       <c r="T13">
-        <v>0.01342595409914262</v>
+        <v>0.01310817613685518</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H14">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I14">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J14">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N14">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O14">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P14">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q14">
-        <v>0.4887962432586667</v>
+        <v>0.24160583364</v>
       </c>
       <c r="R14">
-        <v>4.399166189328001</v>
+        <v>2.17445250276</v>
       </c>
       <c r="S14">
-        <v>0.001346405882628208</v>
+        <v>0.0007893522583524067</v>
       </c>
       <c r="T14">
-        <v>0.001659697621463049</v>
+        <v>0.0009663840792196205</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H15">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I15">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J15">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N15">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O15">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P15">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q15">
-        <v>3.350519433471334</v>
+        <v>3.686181125</v>
       </c>
       <c r="R15">
-        <v>20.103116600828</v>
+        <v>22.11708675</v>
       </c>
       <c r="S15">
-        <v>0.009229119775985407</v>
+        <v>0.01204315041519361</v>
       </c>
       <c r="T15">
-        <v>0.007584413357087858</v>
+        <v>0.009829417054081444</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H16">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I16">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J16">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N16">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O16">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P16">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q16">
-        <v>0.8871586163426666</v>
+        <v>0.3364122491733333</v>
       </c>
       <c r="R16">
-        <v>7.984427547084</v>
+        <v>3.02771024256</v>
       </c>
       <c r="S16">
-        <v>0.002443708592981067</v>
+        <v>0.001099095020271975</v>
       </c>
       <c r="T16">
-        <v>0.003012328891049158</v>
+        <v>0.001345594337510854</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H17">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I17">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J17">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N17">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O17">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P17">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q17">
-        <v>8.141370400776166</v>
+        <v>2.02273745647</v>
       </c>
       <c r="R17">
-        <v>48.84822240465699</v>
+        <v>12.13642473882</v>
       </c>
       <c r="S17">
-        <v>0.02242568176707411</v>
+        <v>0.006608500942479965</v>
       </c>
       <c r="T17">
-        <v>0.01842923750741313</v>
+        <v>0.00539374745199357</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H18">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I18">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J18">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>25.946193</v>
       </c>
       <c r="O18">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P18">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q18">
-        <v>36.6891320487055</v>
+        <v>13.391323184967</v>
       </c>
       <c r="R18">
-        <v>220.134792292233</v>
+        <v>80.34793910980201</v>
       </c>
       <c r="S18">
-        <v>0.1010614625218365</v>
+        <v>0.04375089392142314</v>
       </c>
       <c r="T18">
-        <v>0.08305146371942181</v>
+        <v>0.03570874464043893</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H19">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I19">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J19">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N19">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O19">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P19">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q19">
-        <v>4.535459062732</v>
+        <v>0.9872587452690001</v>
       </c>
       <c r="R19">
-        <v>27.212754376392</v>
+        <v>5.923552471614</v>
       </c>
       <c r="S19">
-        <v>0.01249307630060946</v>
+        <v>0.003225480562350252</v>
       </c>
       <c r="T19">
-        <v>0.01026670550012915</v>
+        <v>0.002632583049629217</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H20">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I20">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J20">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N20">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O20">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P20">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q20">
-        <v>31.0889126890355</v>
+        <v>15.062610440625</v>
       </c>
       <c r="R20">
-        <v>124.355650756142</v>
+        <v>60.25044176250001</v>
       </c>
       <c r="S20">
-        <v>0.08563546775641051</v>
+        <v>0.04921116923735338</v>
       </c>
       <c r="T20">
-        <v>0.04691634025469411</v>
+        <v>0.02677688641684504</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H21">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I21">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J21">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N21">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O21">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P21">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q21">
-        <v>8.231797281720999</v>
+        <v>1.374660247264</v>
       </c>
       <c r="R21">
-        <v>49.390783690326</v>
+        <v>8.247961483584001</v>
       </c>
       <c r="S21">
-        <v>0.02267476568727808</v>
+        <v>0.004491162958680605</v>
       </c>
       <c r="T21">
-        <v>0.01863393258747336</v>
+        <v>0.003665611759114137</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H22">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I22">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J22">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.919165666666667</v>
+        <v>1.306376666666667</v>
       </c>
       <c r="N22">
-        <v>5.757497</v>
+        <v>3.91913</v>
       </c>
       <c r="O22">
-        <v>0.09179925534063473</v>
+        <v>0.06159635513812315</v>
       </c>
       <c r="P22">
-        <v>0.1039451703609422</v>
+        <v>0.07271399171915481</v>
       </c>
       <c r="Q22">
-        <v>0.1911527387313333</v>
+        <v>0.2171981846</v>
       </c>
       <c r="R22">
-        <v>1.720374648582</v>
+        <v>1.9547836614</v>
       </c>
       <c r="S22">
-        <v>0.000526536722525837</v>
+        <v>0.0007096098423662753</v>
       </c>
       <c r="T22">
-        <v>0.0006490552048712304</v>
+        <v>0.0008687574487360965</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H23">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I23">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J23">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>25.946193</v>
       </c>
       <c r="O23">
-        <v>0.413693866679286</v>
+        <v>0.4077922698431246</v>
       </c>
       <c r="P23">
-        <v>0.4684295018482661</v>
+        <v>0.4813954277979023</v>
       </c>
       <c r="Q23">
-        <v>0.861430905062</v>
+        <v>1.43793801606</v>
       </c>
       <c r="R23">
-        <v>7.752878145558001</v>
+        <v>12.94144214454</v>
       </c>
       <c r="S23">
-        <v>0.00237284073691099</v>
+        <v>0.004697898238827229</v>
       </c>
       <c r="T23">
-        <v>0.002924970974929467</v>
+        <v>0.00575151843268643</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H24">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I24">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J24">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.069144</v>
+        <v>0.637617</v>
       </c>
       <c r="N24">
-        <v>3.207432</v>
+        <v>1.912851</v>
       </c>
       <c r="O24">
-        <v>0.05114025576665047</v>
+        <v>0.03006398091472189</v>
       </c>
       <c r="P24">
-        <v>0.05790659824245461</v>
+        <v>0.03549028273468269</v>
       </c>
       <c r="Q24">
-        <v>0.106488880688</v>
+        <v>0.10601020242</v>
       </c>
       <c r="R24">
-        <v>0.9583999261920001</v>
+        <v>0.95409182178</v>
       </c>
       <c r="S24">
-        <v>0.00029332724498241</v>
+        <v>0.0003463467393478073</v>
       </c>
       <c r="T24">
-        <v>0.0003615808108750279</v>
+        <v>0.0004240235854825665</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H25">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I25">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J25">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.328591000000001</v>
+        <v>9.728125</v>
       </c>
       <c r="N25">
-        <v>14.657182</v>
+        <v>19.45625</v>
       </c>
       <c r="O25">
-        <v>0.3505477448773717</v>
+        <v>0.4586862714388558</v>
       </c>
       <c r="P25">
-        <v>0.2646190314995103</v>
+        <v>0.3609835859963323</v>
       </c>
       <c r="Q25">
-        <v>0.7299423207820002</v>
+        <v>1.6173980625</v>
       </c>
       <c r="R25">
-        <v>4.379653924692001</v>
+        <v>9.704388375000001</v>
       </c>
       <c r="S25">
-        <v>0.002010650957806324</v>
+        <v>0.005284213522722713</v>
       </c>
       <c r="T25">
-        <v>0.001652336122076123</v>
+        <v>0.004312886306902726</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H26">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I26">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J26">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.940482</v>
+        <v>0.8878186666666666</v>
       </c>
       <c r="N26">
-        <v>5.821446</v>
+        <v>2.663456</v>
       </c>
       <c r="O26">
-        <v>0.09281887733605709</v>
+        <v>0.0418611226651744</v>
       </c>
       <c r="P26">
-        <v>0.1050996980488267</v>
+        <v>0.0494167117519279</v>
       </c>
       <c r="Q26">
-        <v>0.193275888164</v>
+        <v>0.14760873152</v>
       </c>
       <c r="R26">
-        <v>1.739482993476</v>
+        <v>1.32847858368</v>
       </c>
       <c r="S26">
-        <v>0.0005323850098751495</v>
+        <v>0.0004822536104465813</v>
       </c>
       <c r="T26">
-        <v>0.0006562643152357361</v>
+        <v>0.0005904109430870751</v>
       </c>
     </row>
   </sheetData>
